--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/18.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/18.xlsx
@@ -479,13 +479,13 @@
         <v>-0.06522576012557341</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.67338115137211</v>
+        <v>-1.854393409817398</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05238757372449029</v>
+        <v>0.3636733994370734</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1481720324898969</v>
+        <v>-0.1478487745312204</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.0589744207926608</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.882121013703042</v>
+        <v>-1.980636621252741</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.02825796791716817</v>
+        <v>0.312438842748883</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.166262889682921</v>
+        <v>-0.1596989233597584</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.05118189903179426</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.993979855897959</v>
+        <v>-2.128776594904016</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.06112781302847451</v>
+        <v>0.2900456051020781</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.213363404024113</v>
+        <v>-0.1692155156790583</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.04235218150666376</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.018286414707722</v>
+        <v>-2.140911576688596</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005638336625613035</v>
+        <v>0.2717851899609179</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1965119056462409</v>
+        <v>-0.2077295667329912</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.02769676524673032</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.890802014695197</v>
+        <v>-2.04834269573719</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02851161891251082</v>
+        <v>0.2974274750527598</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2337994062192335</v>
+        <v>-0.2433379556828963</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.0008013943491766496</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.607701843296495</v>
+        <v>-1.787041089325464</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2346062552683866</v>
+        <v>0.4072028282159055</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.187300273665315</v>
+        <v>-0.216290413351827</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.04960441463954388</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.32667479227806</v>
+        <v>-1.409993616245905</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2895912141979007</v>
+        <v>0.4225801483180776</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1815170058083899</v>
+        <v>-0.1930908605703611</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1214199684526155</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9516699435449302</v>
+        <v>-0.9882261492265018</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2996481962367995</v>
+        <v>0.4043734061964713</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2717322028682254</v>
+        <v>-0.2065493702234837</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2151494552169338</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4989038680504838</v>
+        <v>-0.5123690868310508</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3144735381265145</v>
+        <v>0.3819819983116965</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1846129631635631</v>
+        <v>-0.1291797125366391</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3257105763626342</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.03141491734001612</v>
+        <v>0.06486350116737181</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3022025440310204</v>
+        <v>0.3900372206895082</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.00462964089994841</v>
+        <v>-0.03972630640206191</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4496512270422454</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7294330705520558</v>
+        <v>0.7208087921828382</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1913982546862007</v>
+        <v>0.2882164529925106</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1553122978464018</v>
+        <v>0.05835442770511654</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.5870231944555263</v>
       </c>
       <c r="E13" t="n">
-        <v>1.17628596508543</v>
+        <v>1.331416239612915</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2229451818496405</v>
+        <v>0.2015015906965323</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2487570248896183</v>
+        <v>0.2036936456087648</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.7383653063291439</v>
       </c>
       <c r="E14" t="n">
-        <v>1.745415146972578</v>
+        <v>1.928715217876348</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1121739042275497</v>
+        <v>-0.0009835350943485197</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4862192717299699</v>
+        <v>0.3518141017983841</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.9039088548647054</v>
       </c>
       <c r="E15" t="n">
-        <v>2.426247031361395</v>
+        <v>2.597209016895229</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5012984166273967</v>
+        <v>-0.3118948695114083</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5760801048766148</v>
+        <v>0.4796723831857563</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.079853389044055</v>
       </c>
       <c r="E16" t="n">
-        <v>3.245819401852123</v>
+        <v>3.221461609705513</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7189888648896066</v>
+        <v>-0.5011172701864025</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7263340635934988</v>
+        <v>0.6571806473431273</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.254201681204486</v>
       </c>
       <c r="E17" t="n">
-        <v>3.587082218906197</v>
+        <v>3.778589992356966</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9297146289440303</v>
+        <v>-0.7815075640183128</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7731277878342866</v>
+        <v>0.7961022798860324</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.416001007741803</v>
       </c>
       <c r="E18" t="n">
-        <v>4.174169905199514</v>
+        <v>4.253192447920346</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.129370942636154</v>
+        <v>-1.098412588925776</v>
       </c>
       <c r="G18" t="n">
-        <v>0.887244556374525</v>
+        <v>0.9382924773356305</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.565280204391144</v>
       </c>
       <c r="E19" t="n">
-        <v>4.413890688305864</v>
+        <v>4.656669613685429</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.369273482104174</v>
+        <v>-1.383465116410748</v>
       </c>
       <c r="G19" t="n">
-        <v>1.133989795914982</v>
+        <v>1.145354447884829</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.705058024098517</v>
       </c>
       <c r="E20" t="n">
-        <v>4.746496291274175</v>
+        <v>5.046820012663566</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.51110016683043</v>
+        <v>-1.581394134746321</v>
       </c>
       <c r="G20" t="n">
-        <v>1.316156634201355</v>
+        <v>1.328308693764883</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.835329756678156</v>
       </c>
       <c r="E21" t="n">
-        <v>5.117779404037789</v>
+        <v>5.413898332281677</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.742511390636765</v>
+        <v>-1.842460311776822</v>
       </c>
       <c r="G21" t="n">
-        <v>1.461837407683982</v>
+        <v>1.489285667899675</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.950584151756575</v>
       </c>
       <c r="E22" t="n">
-        <v>5.296748428215971</v>
+        <v>5.615425882610063</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.09011311328428</v>
+        <v>-2.142637652203793</v>
       </c>
       <c r="G22" t="n">
-        <v>1.43587247455414</v>
+        <v>1.643835297942895</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.043669414217315</v>
       </c>
       <c r="E23" t="n">
-        <v>5.479051278813259</v>
+        <v>5.813774526371239</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.272512941269171</v>
+        <v>-2.383879577477952</v>
       </c>
       <c r="G23" t="n">
-        <v>1.651728281420692</v>
+        <v>1.750560437801624</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.110727257216194</v>
       </c>
       <c r="E24" t="n">
-        <v>5.601228149096722</v>
+        <v>5.906017709681262</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.373091300547633</v>
+        <v>-2.533714520689911</v>
       </c>
       <c r="G24" t="n">
-        <v>1.803460077937337</v>
+        <v>1.87437250541945</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.152253342745717</v>
       </c>
       <c r="E25" t="n">
-        <v>5.761088358472389</v>
+        <v>5.987395766055695</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.581658555327045</v>
+        <v>-2.769767850766974</v>
       </c>
       <c r="G25" t="n">
-        <v>1.819840717552759</v>
+        <v>1.96526959379589</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.167922711181385</v>
       </c>
       <c r="E26" t="n">
-        <v>5.702100490141377</v>
+        <v>6.013856564695732</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.689346759934359</v>
+        <v>-2.865999305382252</v>
       </c>
       <c r="G26" t="n">
-        <v>1.93250343519963</v>
+        <v>2.101529532505466</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.155674459395446</v>
       </c>
       <c r="E27" t="n">
-        <v>5.789981520771297</v>
+        <v>6.023109061362001</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.748810366393234</v>
+        <v>-2.972348734104104</v>
       </c>
       <c r="G27" t="n">
-        <v>1.854181081415705</v>
+        <v>2.042531905443627</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.113067452692508</v>
       </c>
       <c r="E28" t="n">
-        <v>5.685718020763924</v>
+        <v>5.876840324346988</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.76933541700716</v>
+        <v>-3.010853026427209</v>
       </c>
       <c r="G28" t="n">
-        <v>1.908736046268112</v>
+        <v>2.076610613336248</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.040740890888899</v>
       </c>
       <c r="E29" t="n">
-        <v>5.55692595082045</v>
+        <v>5.731934150123831</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.849994986824383</v>
+        <v>-3.036424865680887</v>
       </c>
       <c r="G29" t="n">
-        <v>1.8632072975109</v>
+        <v>2.037513478115343</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.940868173185113</v>
       </c>
       <c r="E30" t="n">
-        <v>5.482647371123365</v>
+        <v>5.590104415794191</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.812497673538589</v>
+        <v>-3.059967803803362</v>
       </c>
       <c r="G30" t="n">
-        <v>1.83256244302837</v>
+        <v>2.02864645131678</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.817087877428476</v>
       </c>
       <c r="E31" t="n">
-        <v>5.361195086603877</v>
+        <v>5.431322546175016</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.825457877998809</v>
+        <v>-3.038914256923034</v>
       </c>
       <c r="G31" t="n">
-        <v>1.679749257151851</v>
+        <v>1.88399217433312</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.675630735753543</v>
       </c>
       <c r="E32" t="n">
-        <v>5.03730646994765</v>
+        <v>5.132944471744452</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.759064352810722</v>
+        <v>-2.969841350201993</v>
       </c>
       <c r="G32" t="n">
-        <v>1.660656910207607</v>
+        <v>1.818074387272897</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.522972334226469</v>
       </c>
       <c r="E33" t="n">
-        <v>4.70396530264318</v>
+        <v>4.807417608150478</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.778210982695197</v>
+        <v>-2.923884437129704</v>
       </c>
       <c r="G33" t="n">
-        <v>1.467653001336775</v>
+        <v>1.677479132392995</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.365060293786994</v>
       </c>
       <c r="E34" t="n">
-        <v>4.330886583407221</v>
+        <v>4.448586635923354</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.450405455452893</v>
+        <v>-2.754777830294537</v>
       </c>
       <c r="G34" t="n">
-        <v>1.269419632583505</v>
+        <v>1.505732788868863</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.208194132282411</v>
       </c>
       <c r="E35" t="n">
-        <v>4.085011700672483</v>
+        <v>4.101040416057423</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.421095107411089</v>
+        <v>-2.653393765802091</v>
       </c>
       <c r="G35" t="n">
-        <v>1.230096826712204</v>
+        <v>1.386894624369918</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.055934731319687</v>
       </c>
       <c r="E36" t="n">
-        <v>3.751690050829669</v>
+        <v>3.7004103600114</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.257102075529778</v>
+        <v>-2.568487318312671</v>
       </c>
       <c r="G36" t="n">
-        <v>1.159321631382359</v>
+        <v>1.344378273835164</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9088283544710423</v>
       </c>
       <c r="E37" t="n">
-        <v>3.314409861317857</v>
+        <v>3.354140094201225</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.277580772172271</v>
+        <v>-2.552606203731505</v>
       </c>
       <c r="G37" t="n">
-        <v>1.126359078328187</v>
+        <v>1.23950729283375</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7677132076680979</v>
       </c>
       <c r="E38" t="n">
-        <v>3.131776433713771</v>
+        <v>3.024638987477561</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.174207756352949</v>
+        <v>-2.479097343928475</v>
       </c>
       <c r="G38" t="n">
-        <v>1.073933956478984</v>
+        <v>1.13974256773807</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6333268797257079</v>
       </c>
       <c r="E39" t="n">
-        <v>2.911242535256562</v>
+        <v>2.709486874595072</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.100312816761538</v>
+        <v>-2.382667665093254</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8967062558329176</v>
+        <v>0.9929913834677498</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5058899439261437</v>
       </c>
       <c r="E40" t="n">
-        <v>2.650528282456544</v>
+        <v>2.38991283680616</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.048206683426275</v>
+        <v>-2.327668068067498</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8328933050281521</v>
+        <v>0.9060313330597187</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3871417067341327</v>
       </c>
       <c r="E41" t="n">
-        <v>2.278594994251518</v>
+        <v>2.03736404754954</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.877936347939873</v>
+        <v>-2.230898053494651</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7512133379187289</v>
+        <v>0.7811153090169792</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2800380856042842</v>
       </c>
       <c r="E42" t="n">
-        <v>1.932551009012417</v>
+        <v>1.706577228039291</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.848949867777422</v>
+        <v>-2.12772570157798</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7170736379584332</v>
+        <v>0.7217871049483421</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1853629020512701</v>
       </c>
       <c r="E43" t="n">
-        <v>1.801654712734162</v>
+        <v>1.468358679559772</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.643430996540396</v>
+        <v>-2.023494527366474</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6093329801729189</v>
+        <v>0.5923155833709713</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1044299428098319</v>
       </c>
       <c r="E44" t="n">
-        <v>1.428611368897455</v>
+        <v>1.196178527957568</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.648396360769802</v>
+        <v>-1.982454184869451</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7121412094455716</v>
+        <v>0.5528976298740979</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.03820117225865063</v>
       </c>
       <c r="E45" t="n">
-        <v>1.236080758471779</v>
+        <v>0.9575476731005667</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.645165001024391</v>
+        <v>-1.91733112445103</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5687098234187913</v>
+        <v>0.4637003904237549</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.01488675037814034</v>
       </c>
       <c r="E46" t="n">
-        <v>1.134188020134925</v>
+        <v>0.7701550344558166</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.542532428906642</v>
+        <v>-1.793553822311779</v>
       </c>
       <c r="G46" t="n">
-        <v>0.49688556452494</v>
+        <v>0.3652921289131627</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.05711289754892927</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8889962485581454</v>
+        <v>0.5692703405207227</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.424545713672437</v>
+        <v>-1.690833421616578</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4264116700094088</v>
+        <v>0.3118649073920631</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.09036775567117977</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8372987620763033</v>
+        <v>0.4910071490424422</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.373557564937653</v>
+        <v>-1.628250070896137</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4075632913358636</v>
+        <v>0.2330344896844068</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1186276587980724</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7736962339050159</v>
+        <v>0.3612916591943722</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.346729594050212</v>
+        <v>-1.492011479410246</v>
       </c>
       <c r="G49" t="n">
-        <v>0.353593850333135</v>
+        <v>0.1547462914583796</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1458608074005932</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7214687263550796</v>
+        <v>0.2764760898857873</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.270560870175885</v>
+        <v>-1.411864852882168</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2766883422812956</v>
+        <v>0.1299591151553385</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1746439345792061</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4784037481781203</v>
+        <v>0.06808205257857132</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.10920757498354</v>
+        <v>-1.292394810562112</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2217924317705866</v>
+        <v>0.1000400662781393</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2075662281003993</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4591192762207002</v>
+        <v>0.06089962668918619</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.06606971527918</v>
+        <v>-1.205550035161986</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1528622464879049</v>
+        <v>0.03326839027046892</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.245760952354862</v>
       </c>
       <c r="E53" t="n">
-        <v>0.253311302582896</v>
+        <v>-0.08048364570507413</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.035399244128227</v>
+        <v>-1.137471909064721</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1342590559264124</v>
+        <v>0.006822839647349874</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2886457316799697</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1241532802333738</v>
+        <v>-0.1957690222619618</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.010487644007129</v>
+        <v>-1.051525546821446</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08289214645136767</v>
+        <v>-0.08767827000799422</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3358908574231632</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1835436962110392</v>
+        <v>-0.2264376636508844</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9413933900624022</v>
+        <v>-0.9575605574409629</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09673429621016484</v>
+        <v>-0.1134010646291668</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.386991158572872</v>
       </c>
       <c r="E56" t="n">
-        <v>0.136721915619121</v>
+        <v>-0.2822905397034111</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9116426792919854</v>
+        <v>-0.8753835049799901</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04244647661417369</v>
+        <v>-0.1473925538650128</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4405936263777684</v>
       </c>
       <c r="E57" t="n">
-        <v>0.04749844957967786</v>
+        <v>-0.3662662482401139</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8686798668218522</v>
+        <v>-0.8873409998476357</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07418796847349612</v>
+        <v>-0.1743754446043469</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4957767975846806</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.006647868419307734</v>
+        <v>-0.3993513953503123</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8095858722930863</v>
+        <v>-0.7953698411594426</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.007361475611102962</v>
+        <v>-0.2374973552823569</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5518121258243057</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.05209122828177529</v>
+        <v>-0.5283130232419216</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8849616992876416</v>
+        <v>-0.8275901207500123</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04540276213437153</v>
+        <v>-0.2230641923877909</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6073672217583832</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2223115502726838</v>
+        <v>-0.6851419268541499</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8435767516082556</v>
+        <v>-0.8257133948276585</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.01447376062266206</v>
+        <v>-0.2575539868165401</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6613295443763062</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.2356108706291752</v>
+        <v>-0.7202544502938588</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8361137622075664</v>
+        <v>-0.8378959504250242</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.0131746295811887</v>
+        <v>-0.2955367969610254</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.7132785560165871</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.2471170241960273</v>
+        <v>-0.8001284422794309</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.6959503311668022</v>
+        <v>-0.7567636920833207</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.05408200937068094</v>
+        <v>-0.3029924673135936</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.762339292978691</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.3137850136886505</v>
+        <v>-0.886701193057727</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7588477910357689</v>
+        <v>-0.822661961681888</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.03048173870459159</v>
+        <v>-0.3399060865117396</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.8079010391844029</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.3741433737803151</v>
+        <v>-0.9431639897870018</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8208078028245739</v>
+        <v>-0.8398196402394875</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.05723285958676141</v>
+        <v>-0.3453557277584835</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.8498534207343823</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.3699806651615096</v>
+        <v>-1.021413763010394</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8774663840910847</v>
+        <v>-0.8752883573544173</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.03624731886189098</v>
+        <v>-0.3941975656317913</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.8880584670189101</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4006316188508065</v>
+        <v>-1.043648421281244</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9699584150372207</v>
+        <v>-0.8624495271088708</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1577758434659718</v>
+        <v>-0.462815471527978</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.922541507715374</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.4101988345862765</v>
+        <v>-1.083378654164613</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.969558307073274</v>
+        <v>-0.905337319335764</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.1724127198665717</v>
+        <v>-0.4893153050913276</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.9536721042083101</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.546889987214314</v>
+        <v>-1.166323596757612</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.035832287808718</v>
+        <v>-0.9880450027855076</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2061096174155484</v>
+        <v>-0.5401284065918851</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.9817448412285579</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.5094018227386714</v>
+        <v>-1.196403664693472</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.152796166068016</v>
+        <v>-1.03132497400755</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1820000629843744</v>
+        <v>-0.527828136303907</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.006185985749237</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.5240319900118271</v>
+        <v>-1.254064955552557</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.058360927845761</v>
+        <v>-1.036678247787368</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1789260627735642</v>
+        <v>-0.5504586330939669</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.026920617080142</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.6058644372904373</v>
+        <v>-1.25703892877238</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.221679387458589</v>
+        <v>-1.152802265274784</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2445029041754851</v>
+        <v>-0.5655742972258141</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.043725464538883</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.594332057134485</v>
+        <v>-1.339651464596551</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.326661983943848</v>
+        <v>-1.258893697550371</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2644814658630445</v>
+        <v>-0.5591622011511617</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.055821518036334</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.4667677575133054</v>
+        <v>-1.270970126949983</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.325650125541123</v>
+        <v>-1.33862008873217</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3506437400258892</v>
+        <v>-0.6433952962134523</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.062474723348137</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.449074568601521</v>
+        <v>-1.168323526656668</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.46376483302869</v>
+        <v>-1.410827987731696</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3088117204904469</v>
+        <v>-0.6177743583452966</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.063212263937645</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.5249084460243141</v>
+        <v>-1.134625409266338</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.447416519209135</v>
+        <v>-1.431436597478336</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.3059627810093567</v>
+        <v>-0.6483734687770699</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.05666291071858</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.3902214927400706</v>
+        <v>-1.009980799924751</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.515424504428574</v>
+        <v>-1.505786537894601</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2782571342680761</v>
+        <v>-0.5775909543991042</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.041451274290775</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.351007252749231</v>
+        <v>-0.9508990038095206</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.435172971544095</v>
+        <v>-1.517712316887056</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2967535887111378</v>
+        <v>-0.5811028776558196</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.017019977780832</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.238189615250466</v>
+        <v>-0.8500260528441895</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.474184717870254</v>
+        <v>-1.570058149048281</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2265029251632964</v>
+        <v>-0.5173411601879009</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.9830318638738587</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.0454778583837961</v>
+        <v>-0.5977903073716465</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.468098929357662</v>
+        <v>-1.564261462936468</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2730697589123339</v>
+        <v>-0.4574158437767274</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.9390570007214519</v>
       </c>
       <c r="E80" t="n">
-        <v>0.04149926980318396</v>
+        <v>-0.4168951536962935</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.560767837300055</v>
+        <v>-1.642465492109104</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.249412765623307</v>
+        <v>-0.4139559459550446</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.8856221216268656</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2796702444699168</v>
+        <v>-0.1228780121044781</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.420320183223926</v>
+        <v>-1.618196748381299</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1816603371674257</v>
+        <v>-0.3737377765302776</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.8228510925557069</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4699557368844829</v>
+        <v>0.09177686094955662</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.576262872092839</v>
+        <v>-1.67523409038807</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.109168825053212</v>
+        <v>-0.2443241974171979</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.7506578907909718</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5816675881963037</v>
+        <v>0.3270793786735434</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.567841697308979</v>
+        <v>-1.66117480886835</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1146019984416837</v>
+        <v>-0.1972651576820248</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.6700670802999771</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8291398531834445</v>
+        <v>0.6325044766032544</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.405190490916514</v>
+        <v>-1.645726128046999</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.09695943294606942</v>
+        <v>-0.1001999415016318</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5823456072976312</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9993815223980392</v>
+        <v>0.8781231926537578</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.353180725048177</v>
+        <v>-1.611509578081433</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.0969795603284021</v>
+        <v>-0.03759097411276695</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4887025050299417</v>
       </c>
       <c r="E86" t="n">
-        <v>1.093415432814994</v>
+        <v>1.063061510495274</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.13421432273021</v>
+        <v>-1.485220012674657</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.09301324616750949</v>
+        <v>0.0003759780941229016</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3917980091335558</v>
       </c>
       <c r="E87" t="n">
-        <v>1.203610411403743</v>
+        <v>1.246418913942659</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.067822627304154</v>
+        <v>-1.343019446573554</v>
       </c>
       <c r="G87" t="n">
-        <v>0.007327244047020518</v>
+        <v>0.08874555518611878</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2954790052003738</v>
       </c>
       <c r="E88" t="n">
-        <v>1.338910334968118</v>
+        <v>1.493181231262065</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.008434651009195</v>
+        <v>-1.2759482995136</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09943014560139125</v>
+        <v>0.121117095104522</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2039820184767303</v>
       </c>
       <c r="E89" t="n">
-        <v>1.403366142166176</v>
+        <v>1.668520007572243</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.81855597568602</v>
+        <v>-1.12957221645948</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03924622282327663</v>
+        <v>0.1275700558645164</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1230744182358669</v>
       </c>
       <c r="E90" t="n">
-        <v>1.485929884336207</v>
+        <v>1.786487205344792</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.8561301389770841</v>
+        <v>-1.009162286376556</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07145552384166483</v>
+        <v>0.1665421573466871</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.05794237102075715</v>
       </c>
       <c r="E91" t="n">
-        <v>1.530552290967772</v>
+        <v>1.871155173849604</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5186585888496766</v>
+        <v>-0.764616420796452</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04753626466163624</v>
+        <v>0.1580734087500403</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.01307862607678775</v>
       </c>
       <c r="E92" t="n">
-        <v>1.526005332322615</v>
+        <v>1.980596290481891</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4285025540954858</v>
+        <v>-0.5951517905240343</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04350407906765483</v>
+        <v>0.20205905819508</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.008933330549815349</v>
       </c>
       <c r="E93" t="n">
-        <v>1.531373244198674</v>
+        <v>1.970785716396399</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1733373596125217</v>
+        <v>-0.3469799465206636</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05950534802214013</v>
+        <v>0.1675497463046748</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.008467388895204087</v>
       </c>
       <c r="E94" t="n">
-        <v>1.621512201173916</v>
+        <v>1.987319446101685</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.06951178265105332</v>
+        <v>-0.1881517229300553</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03018592717636879</v>
+        <v>0.1200228974104359</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.009249552872685812</v>
       </c>
       <c r="E95" t="n">
-        <v>1.575665683744119</v>
+        <v>1.945921080167411</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.01231952079238792</v>
+        <v>-0.072202142756189</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.005206015939475324</v>
+        <v>0.09742960578165762</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.03595196177980738</v>
       </c>
       <c r="E96" t="n">
-        <v>1.541844362377085</v>
+        <v>1.88561273357124</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1376679025887572</v>
+        <v>0.03585933330529467</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09168361909219871</v>
+        <v>0.03458642885292147</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.06161517248929095</v>
       </c>
       <c r="E97" t="n">
-        <v>1.431302948843944</v>
+        <v>1.735829023696128</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2284692334189476</v>
+        <v>0.1222649658181618</v>
       </c>
       <c r="G97" t="n">
-        <v>0.002368588945058807</v>
+        <v>0.06760265492664734</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.07785642281741172</v>
       </c>
       <c r="E98" t="n">
-        <v>1.316589677881846</v>
+        <v>1.565926470377806</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3211308223132196</v>
+        <v>0.1634644976118164</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.02189893494139292</v>
+        <v>0.02936001857386736</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08085718480449262</v>
       </c>
       <c r="E99" t="n">
-        <v>1.213464289857284</v>
+        <v>1.407100076549227</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3680434810859732</v>
+        <v>0.1557154554137323</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02787676749420064</v>
+        <v>0.02015997508579966</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.07406600131408678</v>
       </c>
       <c r="E100" t="n">
-        <v>1.198038176100972</v>
+        <v>1.287224436979134</v>
       </c>
       <c r="F100" t="n">
-        <v>0.298775399748373</v>
+        <v>0.1777762862917096</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.02574082528422894</v>
+        <v>0.01527390054437096</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.06423241826835782</v>
       </c>
       <c r="E101" t="n">
-        <v>1.063891002615651</v>
+        <v>1.148981646149449</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3266634127720012</v>
+        <v>0.2144306892022376</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1694015414854665</v>
+        <v>-0.05051458333238155</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.06045796134241566</v>
       </c>
       <c r="E102" t="n">
-        <v>1.003372843306678</v>
+        <v>0.998803317596482</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3038853151781682</v>
+        <v>0.1556922784280159</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08835345219715432</v>
+        <v>-0.03802828723799531</v>
       </c>
     </row>
   </sheetData>
